--- a/培训使用指南/培训步骤.xlsx
+++ b/培训使用指南/培训步骤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengjun/myfile/工作/中亦安图/技能/培训/培训资料V1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF1303D-8AAB-4F4B-90BB-425E86D9A9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18832B95-43AB-B347-931D-E97D5FC7B0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8260" yWindow="460" windowWidth="20540" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="流程" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>培训目的：
     让新人可以快速熟悉该技能并应用该技能解决简单任务。
@@ -229,6 +229,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>Greenplum</t>
     </r>
@@ -268,15 +269,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>svn: tigergraph培训.ppt，tigergraph培训1211.ppt, tigergraph培训20190117_交行.pdf, tigergraph培训20191128_v2.ppt, tigergraph培训20200108.ppt的语法部分
-作业：完成GSQL官方文档总结练习.md，总结你的学习笔记（以ppt或pdf形式给出）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>svn: 连通分量算法练习.pdf</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>2.4 银联社区--gsql算法库的应用</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -304,11 +296,6 @@
   <si>
     <t>svn:反套现GSQL练习.md
 目的：加强对gsql语法的理解，对gsql在金融中的应用有个概念</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">svn：股权GSQL案例.pdf
-</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -356,6 +343,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>SAS</t>
     </r>
@@ -374,6 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -392,6 +381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>.pdf</t>
     </r>
@@ -410,6 +400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -428,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -446,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -506,12 +499,28 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>svn：图数据库实战入门--一个简单的电影推荐系统.pdf，movies.csv，ratings.csv
-目的：认识并会使用tigergraph的可视化界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">svn:http://101.37.18.39/svn/bigdata/,连接后相关培训文件在/bigdata/团队知识库/tigergraph基础/tigergraph培训材料/中
+    <t>svn: tigergraph培训.ppt，tigergraph培训1211.ppt, tigergraph培训20190117_交行.pdf, tigergraph培训20191128_v2.ppt, tigergraph培训20200108.ppt的语法部分
+目的：通过看培训ppt，对前面看过的开发指南作一个复习
+作业：完成GSQL官方文档总结练习.md，总结你的学习笔记、</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn：图数据库实战入门--一个简单的电影推荐系统.pdf，movies.csv，ratings.csv，GSQL终端进入步骤.pdf
+目的：认识并会使用tigergraph的可视化界面,可自己搭建graph</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn: 连通分量算法练习.pdf
+目的：学会将现有算法应用到实际中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn：股权GSQL案例.pdf
+目的：学会用GSQL实现复杂逻辑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">svn:http://101.37.18.39/svn/bigdata/,账号密码找邢怀康同事开一个，连接后相关培训文件在/bigdata/团队知识库/tigergraph基础/tigergraph培训材料/中
 反套现项目文档在svn的/bigdata/建行反套现交付物/v2交付/  文件夹中
 公司测试环境http://39.99.135.94:14240/#/home中图xykzjlx_graph01为反套现，图gqyj为股权
 测试环境账号: 请找邢怀康同事开tiger账号
@@ -520,12 +529,58 @@
 </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>以上所有材料也可从github上下载：https://github.com/youyin123/Team-training/tree/master/GSQL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在理论学完后，做一个五分钟的PPT向考评人汇报学习心得（请注意，表达能力也是考评的一个重要方面）
+在实践学完后，做一个五分钟的PPT向考评人汇报学习心得（请注意，表达能力也是考评的一个重要方面）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>如在学习过程中，对培训有任何建议/意见，请记录在表格的最后一列，并向负责人反馈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上所有材料也可从github上下载：https://github.com/youyin123/Team-training/tree/master/SAS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如在学习过程中，对培训有任何建议/意见，请记录在表格的最后一列，并向负责人反馈
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>期望给出学习笔记：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例如在看GSQL开发指南时，刚开始对累加器不理解，后来是怎么理解的。或是某一小节中题目表述不清，经询问负责人后理解了。记录这些，供后学习者参考</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,11 +696,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -928,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,9 +1141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,6 +1171,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,6 +1194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1629,7 +1697,7 @@
   <dimension ref="B1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="27" customHeight="1"/>
@@ -1663,7 +1731,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="71" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="72" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1672,115 +1740,115 @@
       <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="68">
         <v>3</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7" ht="79" customHeight="1">
-      <c r="B4" s="72"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="68"/>
+        <v>70</v>
+      </c>
+      <c r="E4" s="69"/>
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" ht="59" customHeight="1">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="67">
+      <c r="D5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="68">
         <v>1</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="48" customHeight="1">
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="68"/>
+        <v>60</v>
+      </c>
+      <c r="E6" s="69"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7" ht="63" customHeight="1">
-      <c r="B7" s="73"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="78">
         <v>2</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" ht="27" customHeight="1">
-      <c r="B8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="77"/>
+        <v>72</v>
+      </c>
+      <c r="E8" s="78"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" ht="33" customHeight="1">
-      <c r="B9" s="74" t="s">
+    <row r="9" spans="2:7" ht="46" customHeight="1">
+      <c r="B9" s="75" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="67">
+      <c r="D9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="68">
         <v>3</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" ht="33" customHeight="1">
-      <c r="B10" s="75"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="68"/>
+        <v>56</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="69"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" ht="53" customHeight="1">
-      <c r="B11" s="76"/>
-      <c r="C11" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="53"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="52"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -1792,9 +1860,9 @@
         <v>38</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="54"/>
+        <v>55</v>
+      </c>
+      <c r="E12" s="53"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -1802,245 +1870,254 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="27" customHeight="1">
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" spans="2:7" ht="27" customHeight="1">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
     </row>
     <row r="16" spans="2:7" ht="27" customHeight="1">
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="3:6" ht="27" customHeight="1">
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="3:6" ht="27" customHeight="1">
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="3:6" ht="27" customHeight="1">
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-    </row>
-    <row r="20" spans="3:6" ht="27" customHeight="1">
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-    </row>
-    <row r="21" spans="3:6" ht="27" customHeight="1">
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="C19" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="3:6" ht="45" customHeight="1">
+      <c r="C20" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+    </row>
+    <row r="21" spans="3:6" ht="52" customHeight="1">
+      <c r="C21" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
     </row>
     <row r="22" spans="3:6" ht="27" customHeight="1">
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="3:6" ht="27" customHeight="1">
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="3:6" ht="27" customHeight="1">
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="3:6" ht="27" customHeight="1">
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="3:6" ht="27" customHeight="1">
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" spans="3:6" ht="27" customHeight="1">
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="3:6" ht="27" customHeight="1">
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="3:6" ht="27" customHeight="1">
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="3:6" ht="27" customHeight="1">
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="3:6" ht="27" customHeight="1">
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="3:6" ht="27" customHeight="1">
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="3:6" ht="27" customHeight="1">
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="3:6" ht="27" customHeight="1">
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="3:6" ht="27" customHeight="1">
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="3:6" ht="27" customHeight="1">
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="3:6" ht="27" customHeight="1">
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="3:6" ht="27" customHeight="1">
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="3:6" ht="27" customHeight="1">
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="3:6" ht="27" customHeight="1">
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="3:6" ht="27" customHeight="1">
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="3:6" ht="27" customHeight="1">
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="3:6" ht="27" customHeight="1">
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="3:6" ht="27" customHeight="1">
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="3:6" ht="27" customHeight="1">
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="3:6" ht="27" customHeight="1">
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="3:6" ht="27" customHeight="1">
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="3:6" ht="27" customHeight="1">
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="3:6" ht="27" customHeight="1">
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
     </row>
     <row r="50" spans="3:6" ht="27" customHeight="1">
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
     </row>
     <row r="51" spans="3:6" ht="27" customHeight="1">
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C14:F18"/>
+  <mergeCells count="11">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C14:F18"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2049,10 +2126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="27" customHeight="1"/>
@@ -2098,14 +2175,14 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="72" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="80" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>32</v>
@@ -2117,12 +2194,12 @@
       <c r="J3" s="35"/>
     </row>
     <row r="4" spans="2:10" ht="57" customHeight="1">
-      <c r="B4" s="80"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>32</v>
@@ -2134,12 +2211,12 @@
       <c r="J4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="75" customHeight="1">
-      <c r="B5" s="80"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="36" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>32</v>
@@ -2151,7 +2228,7 @@
       <c r="J5" s="35"/>
     </row>
     <row r="6" spans="2:10" ht="75" customHeight="1">
-      <c r="B6" s="80"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="36" t="s">
         <v>47</v>
       </c>
@@ -2168,14 +2245,14 @@
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:10" ht="52" customHeight="1">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="82" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>32</v>
@@ -2187,12 +2264,12 @@
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="2:10" ht="53" customHeight="1">
-      <c r="B8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>32</v>
@@ -2204,12 +2281,12 @@
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="2:10" ht="43" customHeight="1">
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>72</v>
+      <c r="D9" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>32</v>
@@ -2227,8 +2304,8 @@
       <c r="C10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>64</v>
+      <c r="D10" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>32</v>
@@ -2243,42 +2320,78 @@
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="2:10" ht="27" customHeight="1">
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="2:10" ht="27" customHeight="1">
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="2:10" ht="27" customHeight="1">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="2:10" ht="27" customHeight="1">
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="2:10" ht="27" customHeight="1">
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+    </row>
+    <row r="17" spans="3:6" ht="27" customHeight="1">
+      <c r="C17" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+    </row>
+    <row r="18" spans="3:6" ht="37" customHeight="1">
+      <c r="C18" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+    </row>
+    <row r="19" spans="3:6" ht="27" customHeight="1">
+      <c r="C19" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="3:6" ht="75" customHeight="1">
+      <c r="C20" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C12:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
